--- a/coverage.xlsx
+++ b/coverage.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">coverage (m)</t>
   </si>
@@ -71,6 +72,12 @@
   </si>
   <si>
     <t xml:space="preserve">residential</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHOTOS</t>
   </si>
 </sst>
 </file>
@@ -81,7 +88,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -101,6 +108,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -145,12 +158,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -173,7 +190,7 @@
   </sheetPr>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L18" activeCellId="0" sqref="L18"/>
     </sheetView>
   </sheetViews>
@@ -442,4 +459,132 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E34" activeCellId="0" sqref="E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>8318</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>27009</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>33789</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>3938</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>96022</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>512519</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>8539</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>1741455</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/coverage.xlsx
+++ b/coverage.xlsx
@@ -5,11 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="% coverage" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="photos per year" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="distance per year" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="distance growth per year" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="age of registries" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +24,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
+  <si>
+    <t xml:space="preserve">highway</t>
+  </si>
   <si>
     <t xml:space="preserve">coverage (m)</t>
   </si>
@@ -35,6 +41,9 @@
     <t xml:space="preserve">% of total</t>
   </si>
   <si>
+    <t xml:space="preserve">Rio</t>
+  </si>
+  <si>
     <t xml:space="preserve">tertiary_link</t>
   </si>
   <si>
@@ -74,10 +83,100 @@
     <t xml:space="preserve">residential</t>
   </si>
   <si>
-    <t xml:space="preserve">ANO</t>
+    <t xml:space="preserve">tipovial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ampliación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autopista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avenida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boulevard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Callejón</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calzada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carretera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerrada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circuito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continuación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corredor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagonal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eje Vial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pasaje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peatonal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Periférico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Privada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prolongación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retorno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viaducto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YEAR</t>
   </si>
   <si>
     <t xml:space="preserve">PHOTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coverage (m)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% data</t>
   </si>
 </sst>
 </file>
@@ -88,11 +187,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -114,14 +214,28 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1B1B1B"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE12839"/>
+        <bgColor rgb="FF993366"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -158,7 +272,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -171,6 +285,34 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -180,6 +322,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFE12839"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF1B1B1B"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -188,13 +390,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L18" activeCellId="0" sqref="L18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C42" activeCellId="0" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.2"/>
@@ -202,22 +404,29 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>4</v>
+      <c r="A2" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>14250.5739011762</v>
@@ -226,15 +435,17 @@
         <v>15923.6333854136</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>89.4932303216047</v>
+        <f aca="false">100*B2/C$16</f>
+        <v>0.137564836312456</v>
       </c>
       <c r="E2" s="1" t="n">
+        <f aca="false">100*C2/C$16</f>
         <v>0.153715354578329</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>5</v>
+      <c r="A3" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>19356.9064539637</v>
@@ -243,15 +454,17 @@
         <v>19765.1187907982</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>97.934683109395</v>
+        <f aca="false">100*B3/C$16</f>
+        <v>0.186857714385472</v>
       </c>
       <c r="E3" s="1" t="n">
+        <f aca="false">100*C3/C$16</f>
         <v>0.190798303984655</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>6</v>
+      <c r="A4" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>28338.6126560185</v>
@@ -260,15 +473,17 @@
         <v>28878.8218045737</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>98.1293933935019</v>
+        <f aca="false">100*B4/C$16</f>
+        <v>0.273560674705565</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.278775467008726</v>
+        <f aca="false">100*C4/C$16</f>
+        <v>0.278775467008727</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>7</v>
+      <c r="A5" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>54534.8716427021</v>
@@ -277,15 +492,17 @@
         <v>56940.9989567452</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>95.7743500147041</v>
+        <f aca="false">100*B5/C$16</f>
+        <v>0.526440601120627</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.549667631301911</v>
+        <f aca="false">100*C5/C$16</f>
+        <v>0.549667631301913</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>8</v>
+      <c r="A6" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>60429.195989154</v>
@@ -294,15 +511,17 @@
         <v>62529.6730114595</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>96.6408315905946</v>
+        <f aca="false">100*B6/C$16</f>
+        <v>0.58334018772782</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>0.603616688853691</v>
+        <f aca="false">100*C6/C$16</f>
+        <v>0.603616688853693</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>9</v>
+      <c r="A7" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>20014.0724902989</v>
@@ -311,15 +530,17 @@
         <v>145225.24891517</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>13.7814000249981</v>
+        <f aca="false">100*B7/C$16</f>
+        <v>0.193201524736232</v>
       </c>
       <c r="E7" s="1" t="n">
+        <f aca="false">100*C7/C$16</f>
         <v>1.40190056442584</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>10</v>
+      <c r="A8" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>183648.205951878</v>
@@ -328,15 +549,17 @@
         <v>194288.109838043</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>94.5236464058277</v>
+        <f aca="false">100*B8/C$16</f>
+        <v>1.7728082788835</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>1.87551829229283</v>
+        <f aca="false">100*C8/C$16</f>
+        <v>1.87551829229284</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>11</v>
+      <c r="A9" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>49126.2647261642</v>
@@ -345,15 +568,17 @@
         <v>314459.678501043</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>15.6224368606932</v>
+        <f aca="false">100*B9/C$16</f>
+        <v>0.474229782783652</v>
       </c>
       <c r="E9" s="1" t="n">
+        <f aca="false">100*C9/C$16</f>
         <v>3.03556856726262</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>12</v>
+      <c r="A10" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>338807.245956899</v>
@@ -362,15 +587,17 @@
         <v>352236.071009628</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>96.1875497264553</v>
+        <f aca="false">100*B10/C$16</f>
+        <v>3.27060254939543</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>3.40023481073858</v>
+        <f aca="false">100*C10/C$16</f>
+        <v>3.40023481073859</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>13</v>
+      <c r="A11" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>512546.305072248</v>
@@ -379,15 +606,17 @@
         <v>521842.661221195</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>98.2185519046695</v>
+        <f aca="false">100*B11/C$16</f>
+        <v>4.94775502016789</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>5.03749538577003</v>
+        <f aca="false">100*C11/C$16</f>
+        <v>5.03749538577005</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>14</v>
+      <c r="A12" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>568135.372841673</v>
@@ -396,15 +625,17 @@
         <v>607089.307103932</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>93.5834919497949</v>
+        <f aca="false">100*B12/C$16</f>
+        <v>5.48437207583831</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>5.86040546422495</v>
+        <f aca="false">100*C12/C$16</f>
+        <v>5.86040546422498</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>15</v>
+      <c r="A13" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>703470.082107323</v>
@@ -413,15 +644,17 @@
         <v>946911.072156537</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>74.2910398655714</v>
+        <f aca="false">100*B13/C$16</f>
+        <v>6.7907964526128</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>9.14080145452349</v>
+        <f aca="false">100*C13/C$16</f>
+        <v>9.14080145452352</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>16</v>
+      <c r="A14" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>932278.943666276</v>
@@ -430,10 +663,12 @@
         <v>7093078.62202158</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>13.1435021849591</v>
+        <f aca="false">100*B14/C$16</f>
+        <v>8.99955336342037</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>68.4715020150341</v>
+        <f aca="false">100*C14/C$16</f>
+        <v>68.4715020150342</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -445,9 +680,470 @@
         <f aca="false">SUM(C2:C14)</f>
         <v>10359169.0167161</v>
       </c>
+      <c r="D16" s="1" t="n">
+        <f aca="false">100*B16/C$16</f>
+        <v>33.6410830620901</v>
+      </c>
       <c r="E16" s="1" t="n">
         <f aca="false">SUM(E2:E14)</f>
-        <v>99.9999999999997</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>355.482110039826</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <f aca="false">100*B19/C$42</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <f aca="false">100*C19/C$42</f>
+        <v>0.00255518064744722</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>32639.0781783816</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>250281.760547248</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <f aca="false">100*B20/C$42</f>
+        <v>0.234607420616958</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <f aca="false">100*C20/C$42</f>
+        <v>1.79900786255517</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>34920.41169742</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>35054.7447777285</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <f aca="false">100*B21/C$42</f>
+        <v>0.251005487055707</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <f aca="false">100*C21/C$42</f>
+        <v>0.251971063880594</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>848576.12944275</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>1249407.57261908</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <f aca="false">100*B22/C$42</f>
+        <v>6.09950611465331</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <f aca="false">100*C22/C$42</f>
+        <v>8.98065461008043</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>5521.90109575135</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>11770.9198965206</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <f aca="false">100*B23/C$42</f>
+        <v>0.0396910404728967</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <f aca="false">100*C23/C$42</f>
+        <v>0.0846085523653253</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>3253021.92166431</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>9872336.06602772</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <f aca="false">100*B24/C$42</f>
+        <v>23.3824949982067</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <f aca="false">100*C24/C$42</f>
+        <v>70.9616640291212</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>8712.1351437768</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>63345.7484188462</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <f aca="false">100*B25/C$42</f>
+        <v>0.0626222206085962</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <f aca="false">100*C25/C$42</f>
+        <v>0.455324827569416</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>110581.901934125</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>124366.578114692</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <f aca="false">100*B26/C$42</f>
+        <v>0.794855009013891</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <f aca="false">100*C26/C$42</f>
+        <v>0.893938301289736</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>37652.5780173912</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>50423.672829596</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <f aca="false">100*B27/C$42</f>
+        <v>0.270644108266815</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <f aca="false">100*C27/C$42</f>
+        <v>0.36244184826336</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>76024.3917776956</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>1056139.52643062</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <f aca="false">100*B28/C$42</f>
+        <v>0.546458032958536</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <f aca="false">100*C28/C$42</f>
+        <v>7.59145735530052</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>85328.2151229215</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>112321.337097091</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <f aca="false">100*B29/C$42</f>
+        <v>0.613333267147749</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <f aca="false">100*C29/C$42</f>
+        <v>0.8073579478127</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>11514.1258186346</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>12066.6765292397</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <f aca="false">100*B30/C$42</f>
+        <v>0.0827627344193256</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <f aca="false">100*C30/C$42</f>
+        <v>0.0867344304417023</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>548.299121018714</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <f aca="false">100*B31/C$42</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <f aca="false">100*C31/C$42</f>
+        <v>0.00394113589255554</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>3536.13865206335</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>3729.45991696278</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <f aca="false">100*B32/C$42</f>
+        <v>0.0254175183370834</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <f aca="false">100*C32/C$42</f>
+        <v>0.026807098124251</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>341493.459441971</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>363504.054429981</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <f aca="false">100*B33/C$42</f>
+        <v>2.45463120126683</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <f aca="false">100*C33/C$42</f>
+        <v>2.61284182499094</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>420.24393593601</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>1306.08782233057</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <f aca="false">100*B34/C$42</f>
+        <v>0.00302068414129318</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <f aca="false">100*C34/C$42</f>
+        <v>0.00938806829719688</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>9060.98759590806</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>49829.5977614237</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <f aca="false">100*B35/C$42</f>
+        <v>0.0651297477367559</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <f aca="false">100*C35/C$42</f>
+        <v>0.358171678050984</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>79912.6600233866</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>81972.4585590252</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <f aca="false">100*B36/C$42</f>
+        <v>0.574406634288601</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <f aca="false">100*C36/C$42</f>
+        <v>0.589212322696701</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>37679.0439797515</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>480015.023708925</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <f aca="false">100*B37/C$42</f>
+        <v>0.270834343760892</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <f aca="false">100*C37/C$42</f>
+        <v>3.45031455711667</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>11719.5203326975</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>46079.4339756143</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <f aca="false">100*B38/C$42</f>
+        <v>0.0842390958805717</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <f aca="false">100*C38/C$42</f>
+        <v>0.331215761959499</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>9368.11840642344</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>22235.3982447608</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <f aca="false">100*B39/C$42</f>
+        <v>0.0673373826109153</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <f aca="false">100*C39/C$42</f>
+        <v>0.159826493875963</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>25120.5897788172</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>25120.5897788186</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <f aca="false">100*B40/C$42</f>
+        <v>0.180565049667627</v>
+      </c>
+      <c r="E40" s="1" t="n">
+        <f aca="false">100*C40/C$42</f>
+        <v>0.180565049667637</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="1" t="n">
+        <f aca="false">SUM(B20:B39)</f>
+        <v>4997682.9622613</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <f aca="false">SUM(C19:C40)</f>
+        <v>13912210.4887173</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <f aca="false">100*B42/C$42</f>
+        <v>35.9229970414435</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <f aca="false">100*C42/C$42</f>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -466,122 +1162,1104 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E34" activeCellId="0" sqref="E34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B44" activeCellId="0" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>44</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="4" t="n">
         <v>2011</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="4" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="4" t="n">
         <v>2014</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="4" t="n">
         <v>8318</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="4" t="n">
         <v>2015</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="4" t="n">
         <v>27009</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="4" t="n">
         <v>2016</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="4" t="n">
         <v>33789</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="4" t="n">
         <v>2017</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="4" t="n">
         <v>3938</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="4" t="n">
         <v>2018</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="4" t="n">
         <v>96022</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="4" t="n">
         <v>2019</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="4" t="n">
         <v>512519</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="4" t="n">
         <v>2020</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="4" t="n">
         <v>8539</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="4" t="n">
         <v>2021</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="4" t="n">
         <v>1741455</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="4" t="n">
         <v>2022</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="4" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="4" t="n">
         <v>2023</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="4" t="n">
         <v>1413</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="4" t="n">
         <v>2024</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="4" t="n">
         <v>144</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="n">
+        <f aca="false">SUM(B2:B13)</f>
+        <v>2433182</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>62166</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>156179</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>69504</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>783400</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>112517</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>4045021</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>25121</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>7292</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>136692</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="n">
+        <f aca="false">SUM(B17:B31)</f>
+        <v>5398143</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.98"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>232.844254405386</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>1946053.43123254</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>17217682.3590847</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>333676733.632629</v>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>1369123.78099988</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>38479706.4425055</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>262951457.418018</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>2344697.67916278</v>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>840597067.887224</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>2222.55193439642</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>141582.847663007</v>
+      </c>
+      <c r="B12" s="4" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>25524.6686093575</v>
+      </c>
+      <c r="B13" s="4" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="n">
+        <v>142.861255023659</v>
+      </c>
+      <c r="B17" s="6" t="n">
+        <v>2003</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="n">
+        <v>114.704596277699</v>
+      </c>
+      <c r="B18" s="6" t="n">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="n">
+        <v>721.943777598993</v>
+      </c>
+      <c r="B19" s="6" t="n">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="n">
+        <v>785.279674633066</v>
+      </c>
+      <c r="B20" s="6" t="n">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>2296.01453966455</v>
+      </c>
+      <c r="B21" s="4" t="n">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>8274413.00469148</v>
+      </c>
+      <c r="B22" s="4" t="n">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>21683782.2249551</v>
+      </c>
+      <c r="B23" s="4" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>11900626.3747408</v>
+      </c>
+      <c r="B24" s="4" t="n">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>186472713.028294</v>
+      </c>
+      <c r="B25" s="4" t="n">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>29031705.087032</v>
+      </c>
+      <c r="B26" s="4" t="n">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>480615088.00782</v>
+      </c>
+      <c r="B27" s="4" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>3892678.61686304</v>
+      </c>
+      <c r="B28" s="4" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>532398.06067681</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>15754099.0582855</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>34235.0230518072</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <f aca="false">SUM(A17:A31)</f>
+        <v>758195799.290254</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I28"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.89"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>108446.335681001</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>293752.052680957</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>315045.829302021</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>27224.8874669408</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>449949.75456843</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>728346.90189717</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>9808.83152404974</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>1486246.92707952</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>159.377288909666</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>2833.43629367864</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="1" t="n">
+        <f aca="false">SUM(B2:B11)</f>
+        <v>3421814.33378268</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>174.047859502694</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>616.01325247765</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>599319.37161182</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>386750.396168968</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="7" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>164856.761152659</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>308304.425415055</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>40215.2128127661</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="7" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>3336711.76809738</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>11553.4946218349</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="7" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>5273.17591880676</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="7" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>67532.6211712674</v>
+      </c>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="1" t="n">
+        <f aca="false">SUM(B16:B26)</f>
+        <v>4921307.28808254</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>10681.7566404249</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <f aca="false">100*A2/A$13</f>
+        <v>0.298661775886524</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>11140.9811658309</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <f aca="false">100*A3/A$13</f>
+        <v>0.311501687607537</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>12271.9095973049</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <f aca="false">100*A4/A$13</f>
+        <v>0.343122431752404</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>2025.55875030697</v>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <f aca="false">100*A5/A$13</f>
+        <v>0.0566345961524459</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>122755.047146782</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <f aca="false">100*A6/A$13</f>
+        <v>3.43222951187115</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>239689.871951426</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <f aca="false">100*A7/A$13</f>
+        <v>6.70172568321862</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>11263.7727210262</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <f aca="false">100*A8/A$13</f>
+        <v>0.314934937883968</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>3161158.64476585</v>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <f aca="false">100*A9/A$13</f>
+        <v>88.385954341238</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>3234.70513335401</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <f aca="false">100*A10/A$13</f>
+        <v>0.0904423131997454</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>2317.33732166984</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <f aca="false">100*A11/A$13</f>
+        <v>0.0647927211895841</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <f aca="false">SUM(A2:A11)</f>
+        <v>3576539.58519398</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <f aca="false">SUM(C2:C11)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C17" s="9" t="n">
+        <f aca="false">100*A17/A$29</f>
+        <v>0.00188954428082185</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>62166</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C18" s="9" t="n">
+        <f aca="false">100*A18/A$29</f>
+        <v>1.15162166432913</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>156179</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C19" s="9" t="n">
+        <f aca="false">100*A19/A$29</f>
+        <v>2.89320721798505</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>69504</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C20" s="9" t="n">
+        <f aca="false">100*A20/A$29</f>
+        <v>1.28755770288472</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>783400</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C21" s="9" t="n">
+        <f aca="false">100*A21/A$29</f>
+        <v>14.512441074469</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>112517</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C22" s="9" t="n">
+        <f aca="false">100*A22/A$29</f>
+        <v>2.08437111612972</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>4045021</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C23" s="9" t="n">
+        <f aca="false">100*A23/A$29</f>
+        <v>74.9337872191595</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>25121</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C24" s="9" t="n">
+        <f aca="false">100*A24/A$29</f>
+        <v>0.465365116456134</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>7292</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C25" s="9" t="n">
+        <f aca="false">100*A25/A$29</f>
+        <v>0.135083891134833</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>136692</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C26" s="9" t="n">
+        <f aca="false">100*A26/A$29</f>
+        <v>2.53221163562843</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C27" s="9" t="n">
+        <f aca="false">100*A27/A$29</f>
+        <v>0.00246381754264025</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <f aca="false">SUM(A17:A27)</f>
+        <v>5398127</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/coverage.xlsx
+++ b/coverage.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="% coverage" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,7 @@
     <sheet name="distance per year" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="distance growth per year" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="age of registries" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Organizations" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="60">
   <si>
     <t xml:space="preserve">highway</t>
   </si>
@@ -177,6 +178,33 @@
   </si>
   <si>
     <t xml:space="preserve">% data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaart </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MGM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WazeSP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HERE Turkey </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CicloviasMexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skylab Org</t>
   </si>
 </sst>
 </file>
@@ -187,7 +215,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -222,6 +250,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -272,7 +305,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -301,6 +334,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -309,7 +346,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -392,11 +429,11 @@
   </sheetPr>
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C42" activeCellId="0" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.2"/>
@@ -711,13 +748,13 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="4" t="n">
         <v>355.482110039826</v>
       </c>
       <c r="D19" s="1" t="n">
@@ -736,26 +773,26 @@
       <c r="B20" s="1" t="n">
         <v>32639.0781783816</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="4" t="n">
         <v>250281.760547248</v>
       </c>
       <c r="D20" s="1" t="n">
         <f aca="false">100*B20/C$42</f>
-        <v>0.234607420616958</v>
+        <v>0.234607420616959</v>
       </c>
       <c r="E20" s="1" t="n">
         <f aca="false">100*C20/C$42</f>
-        <v>1.79900786255517</v>
+        <v>1.79900786255516</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>34920.41169742</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="4" t="n">
         <v>35054.7447777285</v>
       </c>
       <c r="D21" s="1" t="n">
@@ -768,13 +805,13 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>848576.12944275</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="4" t="n">
         <v>1249407.57261908</v>
       </c>
       <c r="D22" s="1" t="n">
@@ -783,17 +820,17 @@
       </c>
       <c r="E22" s="1" t="n">
         <f aca="false">100*C22/C$42</f>
-        <v>8.98065461008043</v>
+        <v>8.98065461008042</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>5521.90109575135</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="4" t="n">
         <v>11770.9198965206</v>
       </c>
       <c r="D23" s="1" t="n">
@@ -802,17 +839,17 @@
       </c>
       <c r="E23" s="1" t="n">
         <f aca="false">100*C23/C$42</f>
-        <v>0.0846085523653253</v>
+        <v>0.084608552365325</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>3253021.92166431</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="4" t="n">
         <v>9872336.06602772</v>
       </c>
       <c r="D24" s="1" t="n">
@@ -825,13 +862,13 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>8712.1351437768</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25" s="4" t="n">
         <v>63345.7484188462</v>
       </c>
       <c r="D25" s="1" t="n">
@@ -844,32 +881,32 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>110581.901934125</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="4" t="n">
         <v>124366.578114692</v>
       </c>
       <c r="D26" s="1" t="n">
         <f aca="false">100*B26/C$42</f>
-        <v>0.794855009013891</v>
+        <v>0.794855009013889</v>
       </c>
       <c r="E26" s="1" t="n">
         <f aca="false">100*C26/C$42</f>
-        <v>0.893938301289736</v>
+        <v>0.893938301289738</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>37652.5780173912</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27" s="4" t="n">
         <v>50423.672829596</v>
       </c>
       <c r="D27" s="1" t="n">
@@ -882,13 +919,13 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>76024.3917776956</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28" s="4" t="n">
         <v>1056139.52643062</v>
       </c>
       <c r="D28" s="1" t="n">
@@ -897,17 +934,17 @@
       </c>
       <c r="E28" s="1" t="n">
         <f aca="false">100*C28/C$42</f>
-        <v>7.59145735530052</v>
+        <v>7.59145735530053</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>85328.2151229215</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29" s="4" t="n">
         <v>112321.337097091</v>
       </c>
       <c r="D29" s="1" t="n">
@@ -916,22 +953,22 @@
       </c>
       <c r="E29" s="1" t="n">
         <f aca="false">100*C29/C$42</f>
-        <v>0.8073579478127</v>
+        <v>0.807357947812699</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>11514.1258186346</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30" s="4" t="n">
         <v>12066.6765292397</v>
       </c>
       <c r="D30" s="1" t="n">
         <f aca="false">100*B30/C$42</f>
-        <v>0.0827627344193256</v>
+        <v>0.0827627344193253</v>
       </c>
       <c r="E30" s="1" t="n">
         <f aca="false">100*C30/C$42</f>
@@ -939,13 +976,13 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31" s="4" t="n">
         <v>548.299121018714</v>
       </c>
       <c r="D31" s="1" t="n">
@@ -958,13 +995,13 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>3536.13865206335</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32" s="4" t="n">
         <v>3729.45991696278</v>
       </c>
       <c r="D32" s="1" t="n">
@@ -977,13 +1014,13 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>341493.459441971</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33" s="4" t="n">
         <v>363504.054429981</v>
       </c>
       <c r="D33" s="1" t="n">
@@ -992,17 +1029,17 @@
       </c>
       <c r="E33" s="1" t="n">
         <f aca="false">100*C33/C$42</f>
-        <v>2.61284182499094</v>
+        <v>2.61284182499093</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>420.24393593601</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34" s="4" t="n">
         <v>1306.08782233057</v>
       </c>
       <c r="D34" s="1" t="n">
@@ -1011,17 +1048,17 @@
       </c>
       <c r="E34" s="1" t="n">
         <f aca="false">100*C34/C$42</f>
-        <v>0.00938806829719688</v>
+        <v>0.00938806829719691</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>9060.98759590806</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35" s="4" t="n">
         <v>49829.5977614237</v>
       </c>
       <c r="D35" s="1" t="n">
@@ -1034,13 +1071,13 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>79912.6600233866</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36" s="4" t="n">
         <v>81972.4585590252</v>
       </c>
       <c r="D36" s="1" t="n">
@@ -1053,13 +1090,13 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>37679.0439797515</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37" s="4" t="n">
         <v>480015.023708925</v>
       </c>
       <c r="D37" s="1" t="n">
@@ -1072,13 +1109,13 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>11719.5203326975</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38" s="4" t="n">
         <v>46079.4339756143</v>
       </c>
       <c r="D38" s="1" t="n">
@@ -1091,13 +1128,13 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>9368.11840642344</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39" s="4" t="n">
         <v>22235.3982447608</v>
       </c>
       <c r="D39" s="1" t="n">
@@ -1110,13 +1147,13 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>25120.5897788172</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40" s="4" t="n">
         <v>25120.5897788186</v>
       </c>
       <c r="D40" s="1" t="n">
@@ -1168,7 +1205,7 @@
       <selection pane="topLeft" activeCell="B44" activeCellId="0" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -1177,7 +1214,7 @@
       <c r="B1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1291,132 +1328,132 @@
       <c r="B16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="4" t="n">
         <v>2003</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="4" t="n">
         <v>2007</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="4" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="4" t="n">
         <v>2009</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="4" t="n">
         <v>2010</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="4" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="4" t="n">
         <v>2014</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="4" t="n">
         <v>102</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="4" t="n">
         <v>2015</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="4" t="n">
         <v>62166</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="4" t="n">
         <v>2016</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="4" t="n">
         <v>156179</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="4" t="n">
         <v>2017</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="4" t="n">
         <v>69504</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="4" t="n">
         <v>2018</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="4" t="n">
         <v>783400</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="4" t="n">
         <v>2019</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="4" t="n">
         <v>112517</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="4" t="n">
         <v>2020</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="4" t="n">
         <v>4045021</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="4" t="n">
         <v>2021</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" s="4" t="n">
         <v>25121</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="4" t="n">
         <v>2022</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29" s="4" t="n">
         <v>7292</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="4" t="n">
         <v>2023</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30" s="4" t="n">
         <v>136692</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="4" t="n">
         <v>2024</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="4" t="n">
         <v>133</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="n">
+      <c r="B32" s="4" t="n">
         <f aca="false">SUM(B17:B31)</f>
         <v>5398143</v>
       </c>
@@ -1443,7 +1480,7 @@
       <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.98"/>
   </cols>
@@ -1455,7 +1492,7 @@
       <c r="B1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1568,7 +1605,7 @@
       <c r="B16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1579,7 +1616,7 @@
       <c r="B17" s="6" t="n">
         <v>2003</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="4" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1675,7 +1712,7 @@
       <c r="A29" s="1" t="n">
         <v>532398.06067681</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29" s="4" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -1683,7 +1720,7 @@
       <c r="A30" s="1" t="n">
         <v>15754099.0582855</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30" s="4" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -1691,7 +1728,7 @@
       <c r="A31" s="1" t="n">
         <v>34235.0230518072</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="4" t="n">
         <v>2024</v>
       </c>
     </row>
@@ -1723,25 +1760,25 @@
       <selection pane="topLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="11.54"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="11.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.89"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="n">
+      <c r="A2" s="4" t="n">
         <v>2014</v>
       </c>
       <c r="B2" s="1" t="n">
@@ -1749,7 +1786,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="n">
+      <c r="A3" s="4" t="n">
         <v>2015</v>
       </c>
       <c r="B3" s="1" t="n">
@@ -1757,7 +1794,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="n">
+      <c r="A4" s="4" t="n">
         <v>2016</v>
       </c>
       <c r="B4" s="1" t="n">
@@ -1765,7 +1802,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="n">
+      <c r="A5" s="4" t="n">
         <v>2017</v>
       </c>
       <c r="B5" s="1" t="n">
@@ -1773,7 +1810,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="n">
+      <c r="A6" s="4" t="n">
         <v>2018</v>
       </c>
       <c r="B6" s="1" t="n">
@@ -1781,7 +1818,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="n">
+      <c r="A7" s="4" t="n">
         <v>2019</v>
       </c>
       <c r="B7" s="1" t="n">
@@ -1789,7 +1826,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="n">
+      <c r="A8" s="4" t="n">
         <v>2020</v>
       </c>
       <c r="B8" s="1" t="n">
@@ -1797,7 +1834,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="n">
+      <c r="A9" s="4" t="n">
         <v>2021</v>
       </c>
       <c r="B9" s="1" t="n">
@@ -1805,7 +1842,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="n">
+      <c r="A10" s="4" t="n">
         <v>2022</v>
       </c>
       <c r="B10" s="1" t="n">
@@ -1813,7 +1850,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="n">
+      <c r="A11" s="4" t="n">
         <v>2023</v>
       </c>
       <c r="B11" s="1" t="n">
@@ -1827,18 +1864,18 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="n">
+      <c r="A16" s="4" t="n">
         <v>2009</v>
       </c>
       <c r="B16" s="1" t="n">
@@ -1846,7 +1883,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="n">
+      <c r="A17" s="4" t="n">
         <v>2014</v>
       </c>
       <c r="B17" s="1" t="n">
@@ -1854,7 +1891,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="n">
+      <c r="A18" s="4" t="n">
         <v>2015</v>
       </c>
       <c r="B18" s="1" t="n">
@@ -1862,7 +1899,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="n">
+      <c r="A19" s="4" t="n">
         <v>2016</v>
       </c>
       <c r="B19" s="1" t="n">
@@ -1870,7 +1907,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="n">
+      <c r="A20" s="4" t="n">
         <v>2017</v>
       </c>
       <c r="B20" s="1" t="n">
@@ -1878,7 +1915,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="n">
+      <c r="A21" s="4" t="n">
         <v>2018</v>
       </c>
       <c r="B21" s="1" t="n">
@@ -1886,7 +1923,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="n">
+      <c r="A22" s="4" t="n">
         <v>2019</v>
       </c>
       <c r="B22" s="1" t="n">
@@ -1894,7 +1931,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="n">
+      <c r="A23" s="4" t="n">
         <v>2020</v>
       </c>
       <c r="B23" s="1" t="n">
@@ -1902,7 +1939,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="n">
+      <c r="A24" s="4" t="n">
         <v>2021</v>
       </c>
       <c r="B24" s="1" t="n">
@@ -1910,7 +1947,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="n">
+      <c r="A25" s="4" t="n">
         <v>2022</v>
       </c>
       <c r="B25" s="1" t="n">
@@ -1918,7 +1955,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="n">
+      <c r="A26" s="4" t="n">
         <v>2023</v>
       </c>
       <c r="B26" s="1" t="n">
@@ -1954,7 +1991,7 @@
       <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.52"/>
@@ -1970,7 +2007,7 @@
       <c r="C1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1983,7 +2020,7 @@
       </c>
       <c r="C2" s="1" t="n">
         <f aca="false">100*A2/A$13</f>
-        <v>0.298661775886524</v>
+        <v>0.298661775886525</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1995,7 +2032,7 @@
       </c>
       <c r="C3" s="1" t="n">
         <f aca="false">100*A3/A$13</f>
-        <v>0.311501687607537</v>
+        <v>0.311501687607539</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2019,7 +2056,7 @@
       </c>
       <c r="C5" s="1" t="n">
         <f aca="false">100*A5/A$13</f>
-        <v>0.0566345961524459</v>
+        <v>0.0566345961524458</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2031,7 +2068,7 @@
       </c>
       <c r="C6" s="1" t="n">
         <f aca="false">100*A6/A$13</f>
-        <v>3.43222951187115</v>
+        <v>3.43222951187116</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2043,7 +2080,7 @@
       </c>
       <c r="C7" s="1" t="n">
         <f aca="false">100*A7/A$13</f>
-        <v>6.70172568321862</v>
+        <v>6.70172568321864</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2055,7 +2092,7 @@
       </c>
       <c r="C8" s="1" t="n">
         <f aca="false">100*A8/A$13</f>
-        <v>0.314934937883968</v>
+        <v>0.314934937883969</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2114,7 +2151,7 @@
       <c r="C16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2122,10 +2159,10 @@
       <c r="A17" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="4" t="n">
         <v>2014</v>
       </c>
-      <c r="C17" s="9" t="n">
+      <c r="C17" s="7" t="n">
         <f aca="false">100*A17/A$29</f>
         <v>0.00188954428082185</v>
       </c>
@@ -2134,10 +2171,10 @@
       <c r="A18" s="1" t="n">
         <v>62166</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="4" t="n">
         <v>2015</v>
       </c>
-      <c r="C18" s="9" t="n">
+      <c r="C18" s="7" t="n">
         <f aca="false">100*A18/A$29</f>
         <v>1.15162166432913</v>
       </c>
@@ -2146,10 +2183,10 @@
       <c r="A19" s="1" t="n">
         <v>156179</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="4" t="n">
         <v>2016</v>
       </c>
-      <c r="C19" s="9" t="n">
+      <c r="C19" s="7" t="n">
         <f aca="false">100*A19/A$29</f>
         <v>2.89320721798505</v>
       </c>
@@ -2158,10 +2195,10 @@
       <c r="A20" s="1" t="n">
         <v>69504</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="4" t="n">
         <v>2017</v>
       </c>
-      <c r="C20" s="9" t="n">
+      <c r="C20" s="7" t="n">
         <f aca="false">100*A20/A$29</f>
         <v>1.28755770288472</v>
       </c>
@@ -2170,10 +2207,10 @@
       <c r="A21" s="1" t="n">
         <v>783400</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="4" t="n">
         <v>2018</v>
       </c>
-      <c r="C21" s="9" t="n">
+      <c r="C21" s="7" t="n">
         <f aca="false">100*A21/A$29</f>
         <v>14.512441074469</v>
       </c>
@@ -2182,10 +2219,10 @@
       <c r="A22" s="1" t="n">
         <v>112517</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="4" t="n">
         <v>2019</v>
       </c>
-      <c r="C22" s="9" t="n">
+      <c r="C22" s="7" t="n">
         <f aca="false">100*A22/A$29</f>
         <v>2.08437111612972</v>
       </c>
@@ -2194,10 +2231,10 @@
       <c r="A23" s="1" t="n">
         <v>4045021</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="4" t="n">
         <v>2020</v>
       </c>
-      <c r="C23" s="9" t="n">
+      <c r="C23" s="7" t="n">
         <f aca="false">100*A23/A$29</f>
         <v>74.9337872191595</v>
       </c>
@@ -2206,10 +2243,10 @@
       <c r="A24" s="1" t="n">
         <v>25121</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="4" t="n">
         <v>2021</v>
       </c>
-      <c r="C24" s="9" t="n">
+      <c r="C24" s="7" t="n">
         <f aca="false">100*A24/A$29</f>
         <v>0.465365116456134</v>
       </c>
@@ -2218,10 +2255,10 @@
       <c r="A25" s="1" t="n">
         <v>7292</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="4" t="n">
         <v>2022</v>
       </c>
-      <c r="C25" s="9" t="n">
+      <c r="C25" s="7" t="n">
         <f aca="false">100*A25/A$29</f>
         <v>0.135083891134833</v>
       </c>
@@ -2230,10 +2267,10 @@
       <c r="A26" s="1" t="n">
         <v>136692</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="4" t="n">
         <v>2023</v>
       </c>
-      <c r="C26" s="9" t="n">
+      <c r="C26" s="7" t="n">
         <f aca="false">100*A26/A$29</f>
         <v>2.53221163562843</v>
       </c>
@@ -2242,10 +2279,10 @@
       <c r="A27" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="4" t="n">
         <v>2024</v>
       </c>
-      <c r="C27" s="9" t="n">
+      <c r="C27" s="7" t="n">
         <f aca="false">100*A27/A$29</f>
         <v>0.00246381754264025</v>
       </c>
@@ -2254,6 +2291,120 @@
       <c r="A29" s="1" t="n">
         <f aca="false">SUM(A17:A27)</f>
         <v>5398127</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.77"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="10" t="n">
+        <v>1737884</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="10" t="n">
+        <v>3145</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="8" t="n">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="8" t="n">
+        <v>4022141</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="8" t="n">
+        <v>116297</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="8" t="n">
+        <v>20324</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="8" t="n">
+        <v>7308</v>
       </c>
     </row>
   </sheetData>

--- a/coverage.xlsx
+++ b/coverage.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="% coverage" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,6 +14,7 @@
     <sheet name="distance growth per year" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="age of registries" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Organizations" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Origen" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="69">
   <si>
     <t xml:space="preserve">highway</t>
   </si>
@@ -156,6 +157,9 @@
     <t xml:space="preserve">Viaducto</t>
   </si>
   <si>
+    <t xml:space="preserve">tipovial/</t>
+  </si>
+  <si>
     <t xml:space="preserve">YEAR</t>
   </si>
   <si>
@@ -174,6 +178,9 @@
     <t xml:space="preserve">Distance</t>
   </si>
   <si>
+    <t xml:space="preserve">Mexico composed</t>
+  </si>
+  <si>
     <t xml:space="preserve">Count</t>
   </si>
   <si>
@@ -205,6 +212,27 @@
   </si>
   <si>
     <t xml:space="preserve">Skylab Org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Origen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distancia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09e_32614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">semovi_secundarias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vias_federales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vias_primarias_aceso_control</t>
   </si>
 </sst>
 </file>
@@ -215,12 +243,11 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -242,17 +269,10 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF1B1B1B"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -305,7 +325,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -335,18 +355,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -427,15 +435,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C42" activeCellId="0" sqref="C42"/>
+      <selection pane="topLeft" activeCell="F94" activeCellId="0" sqref="F94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.2"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="11.52"/>
   </cols>
@@ -1181,6 +1189,470 @@
       <c r="E42" s="1" t="n">
         <f aca="false">100*C42/C$42</f>
         <v>100</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C68" s="0"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B70" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C70" s="4" t="n">
+        <v>355.482110039826</v>
+      </c>
+      <c r="D70" s="1" t="n">
+        <f aca="false">100*B70/C$42</f>
+        <v>0</v>
+      </c>
+      <c r="E70" s="1" t="n">
+        <f aca="false">100*C70/C$42</f>
+        <v>0.00255518064744722</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>32639.0781783816</v>
+      </c>
+      <c r="C71" s="4" t="n">
+        <v>250281.760547248</v>
+      </c>
+      <c r="D71" s="1" t="n">
+        <f aca="false">100*B71/C$42</f>
+        <v>0.234607420616959</v>
+      </c>
+      <c r="E71" s="1" t="n">
+        <f aca="false">100*C71/C$42</f>
+        <v>1.79900786255516</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>34920.41169742</v>
+      </c>
+      <c r="C72" s="4" t="n">
+        <v>35054.7447777285</v>
+      </c>
+      <c r="D72" s="1" t="n">
+        <f aca="false">100*B72/C$42</f>
+        <v>0.251005487055707</v>
+      </c>
+      <c r="E72" s="1" t="n">
+        <f aca="false">100*C72/C$42</f>
+        <v>0.251971063880594</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>848576.12944275</v>
+      </c>
+      <c r="C73" s="4" t="n">
+        <v>1249407.57261908</v>
+      </c>
+      <c r="D73" s="1" t="n">
+        <f aca="false">100*B73/C$42</f>
+        <v>6.09950611465331</v>
+      </c>
+      <c r="E73" s="1" t="n">
+        <f aca="false">100*C73/C$42</f>
+        <v>8.98065461008042</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B74" s="1" t="n">
+        <v>5521.90109575135</v>
+      </c>
+      <c r="C74" s="4" t="n">
+        <v>11770.9198965206</v>
+      </c>
+      <c r="D74" s="1" t="n">
+        <f aca="false">100*B74/C$42</f>
+        <v>0.0396910404728967</v>
+      </c>
+      <c r="E74" s="1" t="n">
+        <f aca="false">100*C74/C$42</f>
+        <v>0.084608552365325</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>3253021.92166431</v>
+      </c>
+      <c r="C75" s="4" t="n">
+        <v>9872336.06602772</v>
+      </c>
+      <c r="D75" s="1" t="n">
+        <f aca="false">100*B75/C$42</f>
+        <v>23.3824949982067</v>
+      </c>
+      <c r="E75" s="1" t="n">
+        <f aca="false">100*C75/C$42</f>
+        <v>70.9616640291212</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B76" s="1" t="n">
+        <v>8712.1351437768</v>
+      </c>
+      <c r="C76" s="4" t="n">
+        <v>63345.7484188462</v>
+      </c>
+      <c r="D76" s="1" t="n">
+        <f aca="false">100*B76/C$42</f>
+        <v>0.0626222206085962</v>
+      </c>
+      <c r="E76" s="1" t="n">
+        <f aca="false">100*C76/C$42</f>
+        <v>0.455324827569416</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>110581.901934125</v>
+      </c>
+      <c r="C77" s="4" t="n">
+        <v>124366.578114692</v>
+      </c>
+      <c r="D77" s="1" t="n">
+        <f aca="false">100*B77/C$42</f>
+        <v>0.794855009013889</v>
+      </c>
+      <c r="E77" s="1" t="n">
+        <f aca="false">100*C77/C$42</f>
+        <v>0.893938301289738</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>37652.5780173912</v>
+      </c>
+      <c r="C78" s="4" t="n">
+        <v>50423.672829596</v>
+      </c>
+      <c r="D78" s="1" t="n">
+        <f aca="false">100*B78/C$42</f>
+        <v>0.270644108266815</v>
+      </c>
+      <c r="E78" s="1" t="n">
+        <f aca="false">100*C78/C$42</f>
+        <v>0.36244184826336</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>76024.3917776956</v>
+      </c>
+      <c r="C79" s="4" t="n">
+        <v>1056139.52643062</v>
+      </c>
+      <c r="D79" s="1" t="n">
+        <f aca="false">100*B79/C$42</f>
+        <v>0.546458032958536</v>
+      </c>
+      <c r="E79" s="1" t="n">
+        <f aca="false">100*C79/C$42</f>
+        <v>7.59145735530053</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>85328.2151229215</v>
+      </c>
+      <c r="C80" s="4" t="n">
+        <v>112321.337097091</v>
+      </c>
+      <c r="D80" s="1" t="n">
+        <f aca="false">100*B80/C$42</f>
+        <v>0.613333267147749</v>
+      </c>
+      <c r="E80" s="1" t="n">
+        <f aca="false">100*C80/C$42</f>
+        <v>0.807357947812699</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>11514.1258186346</v>
+      </c>
+      <c r="C81" s="4" t="n">
+        <v>12066.6765292397</v>
+      </c>
+      <c r="D81" s="1" t="n">
+        <f aca="false">100*B81/C$42</f>
+        <v>0.0827627344193253</v>
+      </c>
+      <c r="E81" s="1" t="n">
+        <f aca="false">100*C81/C$42</f>
+        <v>0.0867344304417023</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B82" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C82" s="4" t="n">
+        <v>548.299121018714</v>
+      </c>
+      <c r="D82" s="1" t="n">
+        <f aca="false">100*B82/C$42</f>
+        <v>0</v>
+      </c>
+      <c r="E82" s="1" t="n">
+        <f aca="false">100*C82/C$42</f>
+        <v>0.00394113589255554</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>3536.13865206335</v>
+      </c>
+      <c r="C83" s="4" t="n">
+        <v>3729.45991696278</v>
+      </c>
+      <c r="D83" s="1" t="n">
+        <f aca="false">100*B83/C$42</f>
+        <v>0.0254175183370834</v>
+      </c>
+      <c r="E83" s="1" t="n">
+        <f aca="false">100*C83/C$42</f>
+        <v>0.026807098124251</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>341493.459441971</v>
+      </c>
+      <c r="C84" s="4" t="n">
+        <v>363504.054429981</v>
+      </c>
+      <c r="D84" s="1" t="n">
+        <f aca="false">100*B84/C$42</f>
+        <v>2.45463120126683</v>
+      </c>
+      <c r="E84" s="1" t="n">
+        <f aca="false">100*C84/C$42</f>
+        <v>2.61284182499093</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B85" s="1" t="n">
+        <v>420.24393593601</v>
+      </c>
+      <c r="C85" s="4" t="n">
+        <v>1306.08782233057</v>
+      </c>
+      <c r="D85" s="1" t="n">
+        <f aca="false">100*B85/C$42</f>
+        <v>0.00302068414129318</v>
+      </c>
+      <c r="E85" s="1" t="n">
+        <f aca="false">100*C85/C$42</f>
+        <v>0.00938806829719691</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>9060.98759590806</v>
+      </c>
+      <c r="C86" s="4" t="n">
+        <v>49829.5977614237</v>
+      </c>
+      <c r="D86" s="1" t="n">
+        <f aca="false">100*B86/C$42</f>
+        <v>0.0651297477367559</v>
+      </c>
+      <c r="E86" s="1" t="n">
+        <f aca="false">100*C86/C$42</f>
+        <v>0.358171678050984</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>79912.6600233866</v>
+      </c>
+      <c r="C87" s="4" t="n">
+        <v>81972.4585590252</v>
+      </c>
+      <c r="D87" s="1" t="n">
+        <f aca="false">100*B87/C$42</f>
+        <v>0.574406634288601</v>
+      </c>
+      <c r="E87" s="1" t="n">
+        <f aca="false">100*C87/C$42</f>
+        <v>0.589212322696701</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B88" s="1" t="n">
+        <v>37679.0439797515</v>
+      </c>
+      <c r="C88" s="4" t="n">
+        <v>480015.023708925</v>
+      </c>
+      <c r="D88" s="1" t="n">
+        <f aca="false">100*B88/C$42</f>
+        <v>0.270834343760892</v>
+      </c>
+      <c r="E88" s="1" t="n">
+        <f aca="false">100*C88/C$42</f>
+        <v>3.45031455711667</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B89" s="1" t="n">
+        <v>11719.5203326975</v>
+      </c>
+      <c r="C89" s="4" t="n">
+        <v>46079.4339756143</v>
+      </c>
+      <c r="D89" s="1" t="n">
+        <f aca="false">100*B89/C$42</f>
+        <v>0.0842390958805717</v>
+      </c>
+      <c r="E89" s="1" t="n">
+        <f aca="false">100*C89/C$42</f>
+        <v>0.331215761959499</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B90" s="1" t="n">
+        <v>9368.11840642344</v>
+      </c>
+      <c r="C90" s="4" t="n">
+        <v>22235.3982447608</v>
+      </c>
+      <c r="D90" s="1" t="n">
+        <f aca="false">100*B90/C$42</f>
+        <v>0.0673373826109153</v>
+      </c>
+      <c r="E90" s="1" t="n">
+        <f aca="false">100*C90/C$42</f>
+        <v>0.159826493875963</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B91" s="1" t="n">
+        <v>25120.5897788172</v>
+      </c>
+      <c r="C91" s="4" t="n">
+        <v>25120.5897788186</v>
+      </c>
+      <c r="D91" s="1" t="n">
+        <f aca="false">100*B91/C$42</f>
+        <v>0.180565049667627</v>
+      </c>
+      <c r="E91" s="1" t="n">
+        <f aca="false">100*C91/C$42</f>
+        <v>0.180565049667637</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="1" t="n">
+        <f aca="false">SUM(B71:B90)</f>
+        <v>4997682.9622613</v>
+      </c>
+      <c r="C93" s="1" t="n">
+        <v>15226501.4102533</v>
+      </c>
+      <c r="D93" s="1" t="n">
+        <f aca="false">100*B93/C$42</f>
+        <v>35.9229970414435</v>
+      </c>
+      <c r="E93" s="1" t="n">
+        <f aca="false">100*C93/C$42</f>
+        <v>109.447031602936</v>
       </c>
     </row>
   </sheetData>
@@ -1201,18 +1673,18 @@
   </sheetPr>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B44" activeCellId="0" sqref="B44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O24" activeCellId="0" sqref="O24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>5</v>
@@ -1323,10 +1795,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>20</v>
@@ -1477,20 +1949,20 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.98"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>5</v>
@@ -1600,10 +2072,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>20</v>
@@ -1617,7 +2089,7 @@
         <v>2003</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1754,13 +2226,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="11.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.89"/>
@@ -1768,10 +2240,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>5</v>
@@ -1865,10 +2337,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>20</v>
@@ -1967,6 +2439,103 @@
       <c r="B28" s="1" t="n">
         <f aca="false">SUM(B16:B26)</f>
         <v>4921307.28808254</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>2114.66031364302</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>1823874.58149944</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>701901.958184723</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>342931.872936647</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>488643.261986024</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>61435.1671926396</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>5026012.80690672</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>10934.1283596044</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>2499.8665252612</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>64969.693010708</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="1" t="n">
+        <f aca="false">SUM(B35:B44)</f>
+        <v>8525317.9969154</v>
       </c>
     </row>
   </sheetData>
@@ -1985,27 +2554,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
+      <selection pane="topLeft" activeCell="G47" activeCellId="0" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>5</v>
@@ -2143,13 +2712,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>20</v>
@@ -2291,6 +2860,146 @@
       <c r="A29" s="1" t="n">
         <f aca="false">SUM(A17:A27)</f>
         <v>5398127</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>18103.830587907</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C32" s="7" t="n">
+        <f aca="false">100*A32/A$43</f>
+        <v>0.212281022709019</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>38821.5828636004</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C33" s="7" t="n">
+        <f aca="false">100*A33/A$43</f>
+        <v>0.45521224215238</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>25275.5376299298</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C34" s="7" t="n">
+        <f aca="false">100*A34/A$43</f>
+        <v>0.296374678913856</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>113921.929523863</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C35" s="7" t="n">
+        <f aca="false">100*A35/A$43</f>
+        <v>1.33582026140172</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>24074.9221971569</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C36" s="7" t="n">
+        <f aca="false">100*A36/A$43</f>
+        <v>0.282296560434361</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>6448899.3842508</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C37" s="7" t="n">
+        <f aca="false">100*A37/A$43</f>
+        <v>75.6181930663209</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>424881.779293377</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C38" s="7" t="n">
+        <f aca="false">100*A38/A$43</f>
+        <v>4.98205825561986</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>59876.5337711505</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C39" s="7" t="n">
+        <f aca="false">100*A39/A$43</f>
+        <v>0.70209736903423</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>1371223.79470744</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C40" s="7" t="n">
+        <f aca="false">100*A40/A$43</f>
+        <v>16.0786297734069</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>3158.58384875384</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C41" s="7" t="n">
+        <f aca="false">100*A41/A$43</f>
+        <v>0.0370367700067597</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <f aca="false">SUM(A32:A41)</f>
+        <v>8528237.87867397</v>
       </c>
     </row>
   </sheetData>
@@ -2311,22 +3020,21 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.77"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>5</v>
@@ -2334,42 +3042,42 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="10" t="n">
+        <v>54</v>
+      </c>
+      <c r="B2" s="4" t="n">
         <v>1737884</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="10" t="n">
+        <v>55</v>
+      </c>
+      <c r="B3" s="4" t="n">
         <v>3145</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="B4" s="0" t="n">
         <v>387</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="8" t="n">
+        <v>57</v>
+      </c>
+      <c r="B5" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>20</v>
@@ -2377,33 +3085,33 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="8" t="n">
+        <v>58</v>
+      </c>
+      <c r="B9" s="0" t="n">
         <v>4022141</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="8" t="n">
+        <v>59</v>
+      </c>
+      <c r="B10" s="0" t="n">
         <v>116297</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="B11" s="0" t="n">
         <v>20324</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="8" t="n">
+        <v>61</v>
+      </c>
+      <c r="B12" s="0" t="n">
         <v>7308</v>
       </c>
     </row>
@@ -2416,4 +3124,97 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.96"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>889128.176474007</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <f aca="false">100*B2/B$7</f>
+        <v>5.8393464954154</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>11856048.160093</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <f aca="false">100*B3/B$7</f>
+        <v>77.8645589072039</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>213639.869945371</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <f aca="false">100*B4/B$7</f>
+        <v>1.40307917222211</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>2267685.20374102</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <f aca="false">100*B5/B$7</f>
+        <v>14.8930154251586</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="1" t="n">
+        <f aca="false">SUM(B2:B5)</f>
+        <v>15226501.4102534</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>